--- a/gd/体验反馈/v0.2版本体验问题收集.xlsx
+++ b/gd/体验反馈/v0.2版本体验问题收集.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="191">
   <si>
     <t>Eric</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3. 怪死换怪模型重叠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.  buff图标看不出来什么意思，不好理解。Buff图标切换也比较迷惑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -61,14 +57,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5. 法术大招释放完没有表现，衔接不流畅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 九尾狐弱点乱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>小珍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,30 +81,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      照妖镜同时发现多个弱点，弱点信息显示有些乱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 认为应该显示仍然有弱点没打， 或者几个弱点没打。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 同一个点按第二次为什么会取消回到本体?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 集火表现不明显</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 感应范围太小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 按中怪身体， 但是没按中怪的弱点， 即本体受击， 提示是否不应该是箭头，而是脚底光圈？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8. 时间限制UI位置经常被自己的手挡住</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5. 换怪UI挡住敌方怪， （换怪UI认为一直可以保留在底下， 拖动换怪。）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 道具和默默UI按钮可以去掉。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,10 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7. 偷懒动作跟胜利动作太相似， 应该只能是其中一个是转身。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>xw</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,22 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8. 特效打大boss显得太小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 未命中伤害特效仍会显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 集火弱点位置不太精准。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.  换怪UI底的透明框不太好看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>雪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -229,10 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      弱点集火有些难点到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -297,62 +233,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10. 青鸟发大招的时候简直像是要打死我（玩家）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15. 宝宝发大招还在全景阶段时（非solo特写）不知道是在干吗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16. 物理大招时没有显示锁定攻击的区域，不确定大招是否打在弱点上是否产生浪费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   三倍速超快，效率上觉得很爽，真正当动画看的时候有点喜感</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11. 隐藏怪是什么？打完小怪后又突然冒出来的吗？如果想让人知道是隐藏怪也许给个提示比较好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17. 大招时间太长了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 弱点弹出位置在正中央不自然， 个人认为不需要icon点出， 直接放在右上角就可以。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 照妖镜内是否考虑有班透遮罩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 照妖镜移出边界位置限制太大。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 照妖镜找出弱点范围是否小于照妖镜。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 照妖镜找出怪的“心值”和“本体属性”是否还需要？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 按上照妖镜镜后移动， 应该按相对位置移动， 而不是修正绝对位置。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 照妖镜显现弱点时间过长经常以为没对准就挪开了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 照妖镜的切换模式感觉不太明确，是用完大招之后就会自动退出吗？如果是的话那可真是太麻烦了；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不知道为什么回血</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,30 +257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4. 弱点Icon提示按跟动作动， 在受击过程中， 由于怪动作太大， 导致Icon动作很不自然。（高大上的方法是Icon不动，线条按动作拉动）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 设计上同一时间最多多少个弱点？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 找出目标需要时间过长， 不太配合对局的节奏。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 考虑弱点找出后是该部位为整个弱点？比如说混沌哈哈哈的翅膀。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 第三关，照头的时候，照妖镜上的怪属性和2个弱点属性画面表现基本一样，有点混乱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 照妖镜显示弱点的信息不明确，且图标太大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   暴击UI样式不好看</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -425,10 +289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6. 法术大招，一般游戏要么是在特写镜头里包括施法者和目标，直接打完；要么施法者技能会在特写镜头里甩出去，切回正常镜头直接特效加伤害。但是我们的特写镜头只是摆个动作，很奇怪，不流畅。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>集火</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,14 +309,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. 换怪特效不错，但节奏偏慢，尤其是特效砸下来的适合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 换怪整个战斗会暂停，时间太长，不流畅。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -469,10 +321,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 九尾狐弱点密集，且弱点偏小选中很难</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    尾巴在晃动，照妖镜锁定目标有困难，点击有困难，有时候会造成移动照妖镜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -513,22 +361,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. 九尾狐尾巴打掉表现不一致，有的打掉后不变外形。之后还不能选中不能攻击，太容易误解了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 九尾狐回血太突然。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>解决方案：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5. 弱点机制复杂但数值限制不严，后两关都打过了但没有完全明白机制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>已安排转向及子弹，mover相关设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -538,6 +374,410 @@
   </si>
   <si>
     <t>升格节奏需要细化调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug,统计主流分辨率和长宽比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.法阵预调取：每个副本不从全体图案中随机，而是固定范围图案中随机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.修改图案大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.修改玩家画图路径粒子数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.升格是否区分治疗与伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.升格的节奏需调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.修改图案判定难度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.大招特写需要加特效（尽量统一）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需要完善大招特写怪物动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.怪物大招特写怪物朝向调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加速度进度条提示玩家怪物出手顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时位置与对局UI一起调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余次数修改为倒数记次数，剩余次数：5，按一次减1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同弱点一起考虑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.物理大招最后一下打击特效是否要有差异性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚气特效区分物理与魔法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引深问题对面怪物特写：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.同步pvp敌方特写仍需考虑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.敌方怪物大招是否需要特写（需要则和本方怪物大招冲突）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间点问题，bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一解决：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.照妖镜提示信息变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写切镜头后需要怪物动作与特效配合展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.是否提示该怪物有几个弱点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.照妖镜弹出、回收方式需考虑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   大招时间太长了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   法术大招释放完没有表现，衔接不流畅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不解决，需求不高；实现困难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   法术大招，一般游戏要么是在特写镜头里包括施法者和目标，直接打完；要么施法者技能会在特写镜头里甩出去，切回正常镜头直接特效加伤害。但是我们的特写镜头只是摆个动作，很奇怪，不流畅。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     物理大招时没有显示锁定攻击的区域，不确定大招是否打在弱点上是否产生浪费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点需要归纳及定义。整理设计要点并明确相关逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要原因是位置不精准，特效位置有些没有爆点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以之后所有特效提需求时需要一个爆点特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   感应范围太小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外，集火位置现在表现的不够明确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   按中怪身体， 但是没按中怪的弱点， 即本体受击， 提示是否不应该是箭头，而是脚底光圈？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   集火弱点位置不太精准。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 集火表现不明显</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 同一个点按第二次为什么会取消回到本体?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化部位与弱点响应范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  认为应该显示仍然有弱点没打， 或者几个弱点没打。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 弱点弹出位置在正中央不自然， 个人认为不需要icon点出， 直接放在右上角就可以。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待归纳弱点相关规则，及玩法规则，统一调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要优化照妖镜样式，待世界观美术风格定位完成，提出需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化调整，但是预计不能保证完美契合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   照妖镜找出怪的“心值”和“本体属性”是否还需要？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改拖拽响应规则，待对局UI整体调整后修改相应逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照弱点反馈特效需更加明显，参考妖表找怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   换怪特效不错，但节奏偏慢，尤其是特效砸下来的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    偷懒动作跟胜利动作太相似， 应该只能是其中一个是转身。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要做的再像偷懒；比如趴着睡。头顶Zzz，不用每个怪物都回头（不朝向敌人表现含义上表示心不在焉，不应禁止）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   隐藏怪是什么？打完小怪后又突然冒出来的吗？如果想让人知道是隐藏怪也许给个提示比较好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计如此，剧情上会引导一次，之后只能靠玩家对站位空缺的判断，如果对局结束仍未找到，加入一个隐藏怪显现逃跑的动画（类似换怪换走的特效，但需要有差别）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂接点scale参数继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage effect未命中时不需要特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前动作为临时动作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同个元素上两个设计点会使玩家关注点混乱，之后设计时需注意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血逻辑设计如此，但是表现不足，会使玩家较难理解。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点的血量提示也许是一个必要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前逻辑功能不全，混沌、主弱点第一进程直接可以打到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐尾巴数值控制确实有些问题，应该不影响加血的尾巴死不掉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 九尾狐尾巴打掉表现不一致，有的打掉后不变外形。之后还不能选中不能攻击，太容易误解了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 九尾狐回血太突然。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 九尾狐弱点乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 弱点机制复杂但数值限制不严，后两关都打过了但没有完全明白机制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1倍速符合正常游戏时间排布，但是一般人接受了2或者3倍速后回看都会觉得一倍速比较慢，优化方案较为复杂（需要按照玩家节奏关注点拆分表现时间段，分别做不同倍率调整达到整体提速需求）。影响不大，顾暂不处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   九尾狐弱点密集，且弱点偏小选中很难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持残留特效一段时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   考虑弱点找出后是该部位为整个弱点？比如说混沌哈哈哈的翅膀。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   照妖镜显示弱点的信息不明确，且图标太大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    弱点集火有些难点到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   弱点Icon提示按跟动作动， 在受击过程中， 由于怪动作太大， 导致Icon动作很不自然。（高大上的方法是Icon不动，线条按动作拉动）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   第三关，照头的时候，照妖镜上的怪属性和2个弱点属性画面表现基本一样，有点混乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    照妖镜同时发现多个弱点，弱点信息显示有些乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 照妖镜内是否考虑有班透遮罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 照妖镜移出边界位置限制太大。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 照妖镜找出弱点范围是否小于照妖镜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 按上照妖镜镜后移动， 应该按相对位置移动， 而不是修正绝对位置。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 照妖镜显现弱点时间过长经常以为没对准就挪开了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 照妖镜的切换模式感觉不太明确，是用完大招之后就会自动退出吗？如果是的话那可真是太麻烦了；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 怪死换怪模型重叠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 换怪整个战斗会暂停，时间太长，不流畅。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 换怪UI挡住敌方怪， （换怪UI认为一直可以保留在底下， 拖动换怪。）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.  换怪UI底的透明框不太好看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 设计上同一时间最多多少个弱点？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 找出目标需要时间过长， 不太配合对局的节奏。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 特效打大boss显得太小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 未命中伤害特效仍会显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   青鸟发大招的时候简直像是要打死我（玩家）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整UI动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss血条增加设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换怪UI优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑下其他表现（转向，子弹等），目前视角基本看不见脚下</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,12 +842,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -636,13 +877,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -967,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I353"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -981,12 +1222,12 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -996,17 +1237,17 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1016,716 +1257,856 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>100</v>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="G15" s="1" t="s">
-        <v>0</v>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="G17" s="1" t="s">
-        <v>38</v>
+      <c r="B16" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>130</v>
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="G27" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="G29" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>126</v>
+      <c r="A30" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="G31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>101</v>
+      <c r="G33" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="G34" s="1" t="s">
-        <v>2</v>
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
-        <v>50</v>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="G36" s="1" t="s">
-        <v>49</v>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>126</v>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="G46" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="G48" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>126</v>
+      <c r="A49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="G50" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>126</v>
+      <c r="A53" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="G54" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="4" t="s">
-        <v>25</v>
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="G56" s="1" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="G66" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="G60" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="G64" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="G68" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="G72" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>126</v>
+    <row r="74" spans="1:7">
+      <c r="G74" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="G76" s="1" t="s">
-        <v>18</v>
+      <c r="A75" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>126</v>
+      <c r="A77" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="G78" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="G80" s="1" t="s">
-        <v>61</v>
+      <c r="A79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>126</v>
+      <c r="A81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="G82" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="G84" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="G88" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="G92" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="G94" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="G98" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="3" customFormat="1">
+      <c r="A101" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="3" customFormat="1">
-      <c r="A95" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="G97" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="G101" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="G103" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="1" t="s">
-        <v>126</v>
+      <c r="A104" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="G105" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="4" t="s">
-        <v>21</v>
+      <c r="A106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="G107" s="1" t="s">
-        <v>18</v>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="G111" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="4" t="s">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" s="3" customFormat="1">
+      <c r="A114" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="G115" s="1" t="s">
-        <v>18</v>
+      <c r="A115" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
-        <v>126</v>
+      <c r="G116" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="4" t="s">
-        <v>47</v>
+      <c r="G118" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="G119" s="1" t="s">
-        <v>38</v>
+      <c r="A119" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="3" customFormat="1">
-      <c r="A123" s="2" t="s">
-        <v>105</v>
+      <c r="G120" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="G122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="4" t="s">
-        <v>20</v>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="G125" s="1" t="s">
-        <v>18</v>
+      <c r="A125" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="4" t="s">
-        <v>76</v>
+      <c r="G126" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="G129" s="1" t="s">
-        <v>18</v>
+      <c r="A129" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="4" t="s">
-        <v>77</v>
+      <c r="G130" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="G133" s="1" t="s">
-        <v>18</v>
+      <c r="A133" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="4" t="s">
-        <v>78</v>
+      <c r="G134" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="G137" s="1" t="s">
-        <v>18</v>
+      <c r="A137" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="4" t="s">
-        <v>79</v>
+      <c r="G138" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="G141" s="1" t="s">
-        <v>18</v>
+      <c r="A141" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="4" t="s">
-        <v>80</v>
+      <c r="G142" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="G145" s="1" t="s">
-        <v>18</v>
+      <c r="A145" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="4" t="s">
-        <v>81</v>
+      <c r="G146" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="G149" s="1" t="s">
-        <v>18</v>
+      <c r="A149" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="1" t="s">
-        <v>126</v>
+      <c r="G150" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="G153" s="1" t="s">
-        <v>68</v>
+      <c r="A153" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="1" t="s">
-        <v>126</v>
+      <c r="A154" s="5"/>
+      <c r="B154" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="5"/>
+      <c r="B155" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="G157" s="1" t="s">
-        <v>68</v>
+      <c r="A156" s="5"/>
+      <c r="B156" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="3" customFormat="1">
+      <c r="A157" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="3" customFormat="1">
-      <c r="A161" s="2" t="s">
-        <v>106</v>
+      <c r="A158" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="G159" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="G163" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H163" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="G167" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="1" t="s">
-        <v>126</v>
+      <c r="A168" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="G169" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="G171" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="G175" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="G177" s="1" t="s">
-        <v>60</v>
+      <c r="A176" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="1" t="s">
-        <v>126</v>
+      <c r="A178" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="G179" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="G181" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="1" t="s">
-        <v>126</v>
+      <c r="A180" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1">
+      <c r="A183" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="G185" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" s="3" customFormat="1">
-      <c r="A189" s="2" t="s">
-        <v>110</v>
+      <c r="A186" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="G187" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -1734,587 +2115,651 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="G193" s="1" t="s">
-        <v>18</v>
+      <c r="A192" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="1" t="s">
-        <v>126</v>
+      <c r="A194" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="G195" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="4" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:7">
+      <c r="A197" s="1"/>
       <c r="G197" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="G201" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="4" t="s">
-        <v>65</v>
+      <c r="A202" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1"/>
-      <c r="G203" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="1" t="s">
-        <v>126</v>
+      <c r="A204" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="G205" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="4" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="G207" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="1" t="s">
-        <v>126</v>
+      <c r="A208" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="1"/>
+      <c r="G209" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="G211" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="G213" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="4" t="s">
-        <v>94</v>
+      <c r="A210" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="3" customFormat="1">
+      <c r="A214" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="G215" s="1" t="s">
-        <v>3</v>
+      <c r="A215" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" s="3" customFormat="1">
-      <c r="A220" s="2" t="s">
-        <v>112</v>
+      <c r="G216" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1"/>
+      <c r="G218" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="G220" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="G222" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="G224" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="4" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="G226" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="G228" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="1" t="s">
-        <v>126</v>
+      <c r="A229" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="G230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="4" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="G232" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="1" t="s">
-        <v>126</v>
+      <c r="A233" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="G234" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="4" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="G236" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="5"/>
+      <c r="B238" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="G240" s="1" t="s">
-        <v>18</v>
+      <c r="A240" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="4" t="s">
-        <v>89</v>
+      <c r="G241" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="244" spans="1:7">
-      <c r="G244" s="1" t="s">
-        <v>18</v>
+      <c r="A244" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="4" t="s">
-        <v>90</v>
+      <c r="G245" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="G248" s="1" t="s">
-        <v>18</v>
+      <c r="A248" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="4" t="s">
-        <v>91</v>
+      <c r="G249" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B250" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:7">
-      <c r="G252" s="1" t="s">
-        <v>18</v>
+      <c r="A252" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="G256" s="1" t="s">
+      <c r="G253" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" s="3" customFormat="1">
+      <c r="A259" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="G261" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="G265" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="G267" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="G269" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="G271" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" s="3" customFormat="1">
+      <c r="A276" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="G278" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="G282" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="G286" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="G288" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="G292" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="G294" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="G258" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="G262" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="G264" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" s="3" customFormat="1">
-      <c r="A268" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="G270" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
-      <c r="A273" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
-      <c r="G274" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H274" s="1" t="s">
+    <row r="298" spans="1:7">
+      <c r="G298" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I274" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="G276" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
-      <c r="A277" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="G278" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
-      <c r="G280" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="A281" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="3" customFormat="1">
-      <c r="A285" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="A286" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="G287" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="G291" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="G295" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="G297" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="1" t="s">
-        <v>126</v>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="4" t="s">
-        <v>123</v>
+      <c r="G300" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:7">
-      <c r="G301" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302" s="1" t="s">
-        <v>126</v>
+      <c r="A301" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="4" t="s">
-        <v>16</v>
+      <c r="G304" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="G305" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="1" t="s">
-        <v>126</v>
+      <c r="A305" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="4" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="G309" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="4" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="G313" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
-      <c r="G317" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
-      <c r="A318" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" s="3" customFormat="1">
+      <c r="A318" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="4" t="s">
-        <v>46</v>
+      <c r="G320" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="G321" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322" s="1" t="s">
-        <v>126</v>
+      <c r="A321" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="4" t="s">
-        <v>70</v>
+      <c r="G324" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:7">
-      <c r="G325" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326" s="1" t="s">
-        <v>126</v>
+      <c r="A325" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="4" t="s">
-        <v>74</v>
+      <c r="G328" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:7">
-      <c r="G329" s="1" t="s">
-        <v>68</v>
+      <c r="A329" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" s="3" customFormat="1">
-      <c r="A332" s="2" t="s">
-        <v>85</v>
+      <c r="G330" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="G332" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="4" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="G334" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -2324,67 +2769,15 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
-      <c r="A341" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
-      <c r="G342" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
-      <c r="A343" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
-      <c r="G344" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
-      <c r="G346" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
-      <c r="A347" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
-      <c r="G348" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
-      <c r="A349" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="G352" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="B340" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2803,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2420,7 +2813,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2428,12 +2821,12 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2443,7 +2836,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2453,12 +2846,12 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
